--- a/tecnico.xlsx
+++ b/tecnico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prog\concurso_embrapa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EE4F92-0280-4AC1-9CBF-96500E56F34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAFE56C-C341-45AF-9376-665A011070AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,9 +181,6 @@
     <t>Novas Tecnologias</t>
   </si>
   <si>
-    <t>EMBRAPA RONDÔNIA – Ouro Preto d’Oeste/RO; EMBRAPA RONDÔNIA – Vilhena/RO</t>
-  </si>
-  <si>
     <t>40000127</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
     <t>EMBRAPA CLIMA TEMPERADO – Pelotas/RS</t>
   </si>
   <si>
-    <t>EMBRAPA ACRE – Rio Branco/AC; EMBRAPA AGROBIOLOGIA – Seropédica/RJ; EMBRAPA AGROINDÚSTRIA TROPICAL – Fortaleza/CE; EMBRAPA AGROPECUÁRIA OESTE – Dourados/MS; EMBRAPA AGROSSILVIPASTORIL – Sinop/MT; EMBRAPA ALGODÃO – Luis Eduardo Magalhães/BA; EMBRAPA ALGODÃO – Santo Antônio de Goiás; EMBRAPA ALGODÃO – Palmas/TO; EMBRAPA ALGODÃO – Barbalha/CE; EMBRAPA ALGODÃO – Balsas/MA; EMBRAPA ALGODÃO – Sinop/MT; EMBRAPA AMAPÁ – Macapá/AP; EMBRAPA AMAZÔNIA OCIDENTAL – Maués/AM; EMBRAPA AMAZÔNIA OCIDENTAL – Iranduba/AM; EMBRAPA AMAZÔNIA OCIDENTAL – Rio Preto da Eva/AM; EMBRAPA AMAZÔNIA OCIDENTAL – Manaus/AM; EMBRAPA AMAZÔNIA OCIDENTAL – Iranduba/AM; EMBRAPA AMAZÔNIA OCIDENTAL – Rio Preto da Eva/AM; EMBRAPA AMAZÔNIA OCIDENTAL – Parintins/AM; EMBRAPA AMAZÔNIA ORIENTAL – Belém/PA; EMBRAPA ARROZ E FEIJÃO – Santo Antônio de Goiás/GO; EMBRAPA ARROZ E FEIJÃO – Sinop/MT; EMBRAPA ARROZ E FEIJÃO – Palmas/TO; EMBRAPA CERRADOS – Planaltina/DF; EMBRAPA CLIMA TEMPERADO – Pelotas/RS; EMBRAPA COCAIS – Balsas/MA; EMBRAPA FLORESTAS – Colombo/PR; EMBRAPA GADO DE CORTE – Campo Grande/MS; EMBRAPA GADO DE LEITE – Juiz de Fora/MG; EMBRAPA HORTALIÇAS – Brasília/DF; EMBRAPA MANDIOCA E FRUTICULTURA – Cruz das Almas/BA; EMBRAPA MEIO-NORTE – Teresina/PI; EMBRAPA MILHO E SORGO – Sete Lagoas/MG; EMBRAPA MILHO E SORGO – Nova Porteirinha/MG; EMBRAPA PANTANAL – Corumbá/MS; EMBRAPA PECUÁRIA SUDESTE – São Carlos/SP; EMBRAPA PECUÁRIA SUL – Bagé/RS; EMBRAPA PESCA E AQUICULTURA – Palmas/TO; EMBRAPA RONDÔNIA – Porto Velho/RO; EMBRAPA RONDÔNIA – Ouro Preto d´Oeste/RO; EMBRAPA RONDÔNIA – Vilhena/RO; EMBRAPA RORAIMA – Boa Vista/RR; EMBRAPA SEMIÁRIDO – Petrolina/PE; EMBRAPA SOJA – Londrina/PR; EMBRAPA SOJA – Ponta Grossa/PR; EMBRAPA SOJA – Goiânia/GO; EMBRAPA TABULEIROS COSTEIROS – Aracaju/SE; EMBRAPA TRIGO – Passo Fundo/RS; EMBRAPA UVA E VINHO – Bento Gonçalves/RS</t>
-  </si>
-  <si>
     <t>EMBRAPA AGROBIOLOGIA – Seropédica/RJ; EMBRAPA AGROINDÚSTRIA DE ALIMENTOS – Rio de Janeiro/RJ; EMBRAPA AGROPECUÁRIA OESTE – Dourados/MS; EMBRAPA AMAZÔNIA OCIDENTAL – Manaus/AM; EMBRAPA AMAZÔNIA ORIENTAL – Belém/PA; EMBRAPA ARROZ E FEIJÃO – Santo Antônio de Goiás/GO; EMBRAPA CERRADOS – Planaltina/DF; EMBRAPA CLIMA TEMPERADO – Pelotas/RS; EMBRAPA COCAIS – São Luís/MA; EMBRAPA FLORESTAS – Colombo/PR; EMBRAPA GADO DE CORTE – Campo Grande/MS; EMBRAPA GADO DE LEITE – Juiz de Fora/MG; EMBRAPA HORTALIÇAS – Brasília/DF; EMBRAPA MANDIOCA E FRUTICULTURA – Cruz das Almas/BA; EMBRAPA MILHO E SORGO – Sete Lagoas/MG; EMBRAPA PANTANAL – Corumbá/MS; EMBRAPA PECUÁRIA SUL – Bagé/RS; EMBRAPA PESCA E AQUICULTURA – Palmas/TO; EMBRAPA RECURSOS GENÉTICOS E BIOTECNOLOGIA – Brasília/DF; EMBRAPA RONDÔNIA – Porto Velho/RO; EMBRAPA SEMIÁRIDO – Petrolina/PE; EMBRAPA SOJA – Londrina/PR; EMBRAPA SOLOS – Rio de Janeiro/RJ; EMBRAPA SUÍNOS E AVES – Concórdia/SC; EMBRAPA TABULEIROS COSTEIROS – Aracaju/SE; EMBRAPA TRIGO – Passo Fundo/RS; EMBRAPA UVA – Bento Gonçalves/RS</t>
   </si>
   <si>
@@ -299,6 +293,12 @@
   </si>
   <si>
     <t>Executar atividades de suporte técnico e administrativo à pesquisa e ao desenvolvimento nas áreas de: (a) montagem e projeção de filmes cinematográficos, manejo de equipamentos audiovisuais utilizados nas diversas atividades necessárias, bem como operação de equipamentos eletrônicos para gravação em fita ou fios magnéticos, filmes ou discos virgens; (b) transmissão e captação de imagem e som, operando equipamentos de áudio e vídeo; (c) operação de elementos e equipamentos de projeção de slides e retroprojeção, de aparelhos do tipo geradores de caracteres, de efeitos especiais e de computação gráfica; (d) captação de ângulos de luz e adequação de som; (e) montagens de imagens captadas, eliminando partes desnecessárias; (f) organização de arquivos, envio e recebimento de documentos, pertinentes a sua área de atuação para assegurar a pronta localização de dados.</t>
+  </si>
+  <si>
+    <t>EMBRAPA RONDÔNIA – Ouro Preto do Oeste/RO; EMBRAPA RONDÔNIA – Vilhena/RO</t>
+  </si>
+  <si>
+    <t>EMBRAPA ACRE – Rio Branco/AC; EMBRAPA AGROBIOLOGIA – Seropédica/RJ; EMBRAPA AGROINDÚSTRIA TROPICAL – Fortaleza/CE; EMBRAPA AGROPECUÁRIA OESTE – Dourados/MS; EMBRAPA AGROSSILVIPASTORIL – Sinop/MT; EMBRAPA ALGODÃO – Luis Eduardo Magalhães/BA; EMBRAPA ALGODÃO – Santo Antônio de Goiás/GO; EMBRAPA ALGODÃO – Palmas/TO; EMBRAPA ALGODÃO – Barbalha/CE; EMBRAPA ALGODÃO – Balsas/MA; EMBRAPA ALGODÃO – Sinop/MT; EMBRAPA AMAPÁ – Macapá/AP; EMBRAPA AMAZÔNIA OCIDENTAL – Maués/AM; EMBRAPA AMAZÔNIA OCIDENTAL – Iranduba/AM; EMBRAPA AMAZÔNIA OCIDENTAL – Rio Preto da Eva/AM; EMBRAPA AMAZÔNIA OCIDENTAL – Manaus/AM; EMBRAPA AMAZÔNIA OCIDENTAL – Iranduba/AM; EMBRAPA AMAZÔNIA OCIDENTAL – Rio Preto da Eva/AM; EMBRAPA AMAZÔNIA OCIDENTAL – Parintins/AM; EMBRAPA AMAZÔNIA ORIENTAL – Belém/PA; EMBRAPA ARROZ E FEIJÃO – Santo Antônio de Goiás/GO; EMBRAPA ARROZ E FEIJÃO – Sinop/MT; EMBRAPA ARROZ E FEIJÃO – Palmas/TO; EMBRAPA CERRADOS – Planaltina/DF; EMBRAPA CLIMA TEMPERADO – Pelotas/RS; EMBRAPA COCAIS – Balsas/MA; EMBRAPA FLORESTAS – Colombo/PR; EMBRAPA GADO DE CORTE – Campo Grande/MS; EMBRAPA GADO DE LEITE – Juiz de Fora/MG; EMBRAPA GADO DE LEITE – Coronel Pacheco/MG; EMBRAPA HORTALIÇAS – Brasília/DF; EMBRAPA MANDIOCA E FRUTICULTURA – Cruz das Almas/BA; EMBRAPA MEIO-NORTE – Teresina/PI; EMBRAPA MILHO E SORGO – Sete Lagoas/MG; EMBRAPA MILHO E SORGO – Nova Porteirinha/MG; EMBRAPA PANTANAL – Corumbá/MS; EMBRAPA PECUÁRIA SUDESTE – São Carlos/SP; EMBRAPA PECUÁRIA SUL – Bagé/RS; EMBRAPA PESCA E AQUICULTURA – Palmas/TO; EMBRAPA RONDÔNIA – Porto Velho/RO; EMBRAPA RONDÔNIA – Ouro Preto do Oeste/RO; EMBRAPA RONDÔNIA – Vilhena/RO; EMBRAPA RORAIMA – Boa Vista/RR; EMBRAPA SEMIÁRIDO – Petrolina/PE; EMBRAPA SOJA – Londrina/PR; EMBRAPA SOJA – Ponta Grossa/PR; EMBRAPA SOJA – Goiânia/GO; EMBRAPA TABULEIROS COSTEIROS – Aracaju/SE; EMBRAPA TRIGO – Passo Fundo/RS; EMBRAPA UVA E VINHO – Bento Gonçalves/RS</t>
   </si>
 </sst>
 </file>
@@ -357,18 +357,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,7 +669,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,11 +705,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>64</v>
+      <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -747,11 +740,11 @@
       <c r="I2">
         <v>3</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>66</v>
+      <c r="J2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -782,11 +775,11 @@
       <c r="I3">
         <v>10</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>68</v>
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -817,11 +810,11 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>70</v>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -838,7 +831,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F5">
         <v>41</v>
@@ -852,11 +845,11 @@
       <c r="I5">
         <v>59</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>72</v>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -887,11 +880,11 @@
       <c r="I6">
         <v>18</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>74</v>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -922,11 +915,11 @@
       <c r="I7">
         <v>6</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>76</v>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -943,7 +936,7 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="F8">
         <v>78</v>
@@ -957,11 +950,11 @@
       <c r="I8">
         <v>112</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>78</v>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -992,11 +985,11 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>79</v>
+      <c r="K9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1027,11 +1020,11 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>80</v>
+      <c r="K10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1062,11 +1055,11 @@
       <c r="I11">
         <v>3</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>82</v>
+      <c r="J11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1097,11 +1090,11 @@
       <c r="I12">
         <v>2</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>84</v>
+      <c r="J12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1132,11 +1125,11 @@
       <c r="I13">
         <v>4</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>86</v>
+      <c r="J13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1153,7 +1146,7 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1167,16 +1160,16 @@
       <c r="I14">
         <v>2</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>88</v>
+      <c r="J14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1185,10 +1178,10 @@
         <v>42</v>
       </c>
       <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
         <v>55</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
       </c>
       <c r="F15">
         <v>13</v>
@@ -1202,29 +1195,29 @@
       <c r="I15">
         <v>19</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>90</v>
+      <c r="J15" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>58</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>59</v>
       </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
       <c r="F16">
         <v>1</v>
       </c>
@@ -1237,11 +1230,11 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>92</v>
+      <c r="J16" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
